--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_6.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_2</t>
+          <t>model_6_6_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9722764991813529</v>
+        <v>0.9779811636205089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7740075300259137</v>
+        <v>0.7158988395340466</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9552049563918398</v>
+        <v>0.9530584480351623</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9453342904747469</v>
+        <v>0.3115147519669402</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9583701783122391</v>
+        <v>0.9028847354811762</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1853871776292759</v>
+        <v>0.1472400602570757</v>
       </c>
       <c r="H2" t="n">
-        <v>1.511212687316356</v>
+        <v>1.899785768201388</v>
       </c>
       <c r="I2" t="n">
-        <v>0.462450962975832</v>
+        <v>0.34517506009365</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5981443898823947</v>
+        <v>0.4295428220214439</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5302976764291134</v>
+        <v>0.387358941057547</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4452435974855696</v>
+        <v>0.6917981404424137</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4305661129597589</v>
+        <v>0.3837187254449223</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01622839072311</v>
+        <v>1.012889074953848</v>
       </c>
       <c r="O2" t="n">
-        <v>0.448896203783182</v>
+        <v>0.4000544259943776</v>
       </c>
       <c r="P2" t="n">
-        <v>133.3706175776354</v>
+        <v>133.8313819224549</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.5975461940685</v>
+        <v>213.058310538888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_1</t>
+          <t>model_6_6_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9725122395639735</v>
+        <v>0.9789190796506653</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7739779343151956</v>
+        <v>0.7158773427655396</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9566234834104426</v>
+        <v>0.9571298544124529</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9470023405668124</v>
+        <v>0.3804611281391473</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9596614000991278</v>
+        <v>0.912029868137595</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1838107806052082</v>
+        <v>0.1409682114447144</v>
       </c>
       <c r="H3" t="n">
-        <v>1.511410593970203</v>
+        <v>1.899929517191379</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4478065038365932</v>
+        <v>0.3152368096071798</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5798928238956598</v>
+        <v>0.3865274907942746</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5138495657819565</v>
+        <v>0.3508821943877733</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4124524168216129</v>
+        <v>0.7354234056198515</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4287315950629346</v>
+        <v>0.3754573363841947</v>
       </c>
       <c r="N3" t="n">
-        <v>1.016090396352796</v>
+        <v>1.012340050936196</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4469835866615143</v>
+        <v>0.3914413324979019</v>
       </c>
       <c r="P3" t="n">
-        <v>133.3876968335612</v>
+        <v>133.918441729537</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.6146254499942</v>
+        <v>213.1453703459701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_3</t>
+          <t>model_6_6_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9719702578621781</v>
+        <v>0.9769940656608406</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7739574306155865</v>
+        <v>0.715734846444585</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9538195608175113</v>
+        <v>0.949236283975661</v>
       </c>
       <c r="E4" t="n">
-        <v>0.94376664600781</v>
+        <v>0.2464804950140826</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9571355122381644</v>
+        <v>0.8942752998253883</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1874350147407107</v>
+        <v>0.1538407888585464</v>
       </c>
       <c r="H4" t="n">
-        <v>1.511547702303901</v>
+        <v>1.900882390745737</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4767533827492096</v>
+        <v>0.3732805583932033</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6152973318522648</v>
+        <v>0.470117399820178</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5460253573007372</v>
+        <v>0.4216989791066907</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4751000139971841</v>
+        <v>0.6532728690717282</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4329376568753412</v>
+        <v>0.3922254311726184</v>
       </c>
       <c r="N4" t="n">
-        <v>1.016407653934335</v>
+        <v>1.013466888393654</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4513687092330233</v>
+        <v>0.4089232797962101</v>
       </c>
       <c r="P4" t="n">
-        <v>133.3486461633935</v>
+        <v>133.7436740998582</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.5755747798265</v>
+        <v>212.9706027162912</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_4</t>
+          <t>model_6_6_5</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9716186570226923</v>
+        <v>0.9797580644037848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7738500813594309</v>
+        <v>0.7156038021042694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9524850676869115</v>
+        <v>0.9614287289849126</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9423022452311727</v>
+        <v>0.4525695478526608</v>
       </c>
       <c r="F5" t="n">
-        <v>0.95596580863494</v>
+        <v>0.9216320025191092</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1897861711733247</v>
+        <v>0.1353579165374346</v>
       </c>
       <c r="H5" t="n">
-        <v>1.512265547274111</v>
+        <v>1.901758684852831</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4905303005423653</v>
+        <v>0.2836259184718514</v>
       </c>
       <c r="J5" t="n">
-        <v>0.631320596101317</v>
+        <v>0.3415393749504883</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5609255196783973</v>
+        <v>0.3125826271225817</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5022045155927785</v>
+        <v>0.7845904293489645</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4356445468192213</v>
+        <v>0.367910201730578</v>
       </c>
       <c r="N5" t="n">
-        <v>1.016613469059887</v>
+        <v>1.01184893790998</v>
       </c>
       <c r="O5" t="n">
-        <v>0.454190837085849</v>
+        <v>0.3835729006973582</v>
       </c>
       <c r="P5" t="n">
-        <v>133.3237145109075</v>
+        <v>133.9996655505067</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.5506431273405</v>
+        <v>213.2265941669398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_0</t>
+          <t>model_6_6_9</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9726445504203547</v>
+        <v>0.97599437519855</v>
       </c>
       <c r="C6" t="n">
-        <v>0.773839899471999</v>
+        <v>0.7154381548151175</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9580492004790564</v>
+        <v>0.9456745015226724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9487638350408621</v>
+        <v>0.185785200011088</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9609956528002088</v>
+        <v>0.8862452422276704</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1829260172993515</v>
+        <v>0.1605257235830344</v>
       </c>
       <c r="H6" t="n">
-        <v>1.512333633602251</v>
+        <v>1.902866369038125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.433087816718463</v>
+        <v>0.3994713940343375</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5606188028208039</v>
+        <v>0.5079849189478478</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4968533097696334</v>
+        <v>0.4537280800219254</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3765930084648877</v>
+        <v>0.6191074579297794</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4276985121547087</v>
+        <v>0.4006566155488193</v>
       </c>
       <c r="N6" t="n">
-        <v>1.016012946095402</v>
+        <v>1.014052073054507</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4459065232751088</v>
+        <v>0.4177133971462636</v>
       </c>
       <c r="P6" t="n">
-        <v>133.3973469698709</v>
+        <v>133.6586021554176</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.6242755863039</v>
+        <v>212.8855307718506</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_5</t>
+          <t>model_6_6_10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9712407960307035</v>
+        <v>0.9750081617460195</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7737029242462389</v>
+        <v>0.7150498899960598</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9512132685459057</v>
+        <v>0.9423761437479565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9409411058321011</v>
+        <v>0.1295989034079992</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9548658644934631</v>
+        <v>0.8788106085570533</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1923129293666439</v>
+        <v>0.1671205374812015</v>
       </c>
       <c r="H7" t="n">
-        <v>1.513249587567622</v>
+        <v>1.905462697670959</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5036599838755198</v>
+        <v>0.4237251904139448</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6462139890980084</v>
+        <v>0.5430392944348673</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5749370575322447</v>
+        <v>0.483382242424406</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5267507684340743</v>
+        <v>0.5886749995782775</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4385349807787788</v>
+        <v>0.4088037884868504</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016834655982027</v>
+        <v>1.014629368734037</v>
       </c>
       <c r="O7" t="n">
-        <v>0.457204322803088</v>
+        <v>0.4262074121032397</v>
       </c>
       <c r="P7" t="n">
-        <v>133.2972627865033</v>
+        <v>133.5780798911994</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.5241914029363</v>
+        <v>212.8050085076324</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_6</t>
+          <t>model_6_6_4</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9708510225033838</v>
+        <v>0.9804314116338799</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7735293948406754</v>
+        <v>0.7149944131783914</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9500110203198479</v>
+        <v>0.9659207674094265</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9396814877740322</v>
+        <v>0.5266364193743507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9538377109857907</v>
+        <v>0.9315653382108988</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1949193467385722</v>
+        <v>0.1308552405093091</v>
       </c>
       <c r="H8" t="n">
-        <v>1.514409979501654</v>
+        <v>1.905833671406155</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5160716438515621</v>
+        <v>0.2505946366282942</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6599965500740158</v>
+        <v>0.2953293899106945</v>
       </c>
       <c r="K8" t="n">
-        <v>0.588034096962789</v>
+        <v>0.2729620132694943</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5489465325036109</v>
+        <v>0.840035067680692</v>
       </c>
       <c r="M8" t="n">
-        <v>0.44149671203597</v>
+        <v>0.3617391885175135</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01706281609558</v>
+        <v>1.011454783433826</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4602921410915267</v>
+        <v>0.3771391746760551</v>
       </c>
       <c r="P8" t="n">
-        <v>133.270338824892</v>
+        <v>134.0673272021232</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.4972674413251</v>
+        <v>213.2942558185563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_7</t>
+          <t>model_6_6_11</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.970460055776263</v>
+        <v>0.9740534764888901</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7733399090526333</v>
+        <v>0.7146020654119135</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9488826686183597</v>
+        <v>0.9393375325651787</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9385197920357462</v>
+        <v>0.0779178487744473</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9528815521903941</v>
+        <v>0.871967772167096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1975337430430649</v>
+        <v>0.1735045221915474</v>
       </c>
       <c r="H9" t="n">
-        <v>1.515677071838794</v>
+        <v>1.908457302727188</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5277204176644213</v>
+        <v>0.4460689935843681</v>
       </c>
       <c r="J9" t="n">
-        <v>0.67270765900575</v>
+        <v>0.5752828699010977</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6002140383350857</v>
+        <v>0.510675931742733</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5689785751685967</v>
+        <v>0.5615545442367429</v>
       </c>
       <c r="M9" t="n">
-        <v>0.44444768313387</v>
+        <v>0.4165387403250115</v>
       </c>
       <c r="N9" t="n">
-        <v>1.017291674667553</v>
+        <v>1.015188208884552</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4633687411384167</v>
+        <v>0.434271656854709</v>
       </c>
       <c r="P9" t="n">
-        <v>133.2436917167667</v>
+        <v>133.5031032308606</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.4706203331997</v>
+        <v>212.7300318472936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_8</t>
+          <t>model_6_6_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9700756182103804</v>
+        <v>0.9731422474506235</v>
       </c>
       <c r="C10" t="n">
-        <v>0.773142268548618</v>
+        <v>0.7141191556504263</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9478292145117377</v>
+        <v>0.9365500466027117</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9374517723715263</v>
+        <v>0.03062243681867149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9519959811613022</v>
+        <v>0.865699413184068</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2001044788162948</v>
+        <v>0.1795979149662598</v>
       </c>
       <c r="H10" t="n">
-        <v>1.516998694799195</v>
+        <v>1.911686522525848</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5385959705563799</v>
+        <v>0.4665661990309522</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6843937777076767</v>
+        <v>0.6047902628019477</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6114948039017178</v>
+        <v>0.5356782309164499</v>
       </c>
       <c r="L10" t="n">
-        <v>0.587048544312757</v>
+        <v>0.5373651292935523</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4473303911163367</v>
+        <v>0.4237899420305534</v>
       </c>
       <c r="N10" t="n">
-        <v>1.017516711291485</v>
+        <v>1.015721611248416</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4663741719677251</v>
+        <v>0.4418315572289125</v>
       </c>
       <c r="P10" t="n">
-        <v>133.2178313095058</v>
+        <v>133.4340694650014</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.4447599259389</v>
+        <v>212.6609980814344</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_9</t>
+          <t>model_6_6_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9697032575780358</v>
+        <v>0.9808514096906464</v>
       </c>
       <c r="C11" t="n">
-        <v>0.772942432760813</v>
+        <v>0.7139447263225399</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9468504561644183</v>
+        <v>0.9705578977209141</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9364723232148052</v>
+        <v>0.6008848598344769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9511787024844159</v>
+        <v>0.9416466119169996</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2025944560793461</v>
+        <v>0.1280467115697982</v>
       </c>
       <c r="H11" t="n">
-        <v>1.518334997632407</v>
+        <v>1.912852932244598</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5487003862189211</v>
+        <v>0.2164964513972475</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6951107705603377</v>
+        <v>0.2490061248341386</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6219056335852695</v>
+        <v>0.2327513262404783</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6033296299569018</v>
+        <v>0.9025854680063635</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4501049389635112</v>
+        <v>0.3578361518485775</v>
       </c>
       <c r="N11" t="n">
-        <v>1.017734678490906</v>
+        <v>1.011208930912792</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4692668380608597</v>
+        <v>0.3730699776557228</v>
       </c>
       <c r="P11" t="n">
-        <v>133.1930981028297</v>
+        <v>134.1107202949915</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.4200267192628</v>
+        <v>213.3376489114245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_10</t>
+          <t>model_6_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9693467786705211</v>
+        <v>0.9722818106915967</v>
       </c>
       <c r="C12" t="n">
-        <v>0.772744722033036</v>
+        <v>0.7136197926629662</v>
       </c>
       <c r="D12" t="n">
-        <v>0.945944678734179</v>
+        <v>0.9340022969352604</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9355760619753634</v>
+        <v>-0.01249319213842059</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9504267418196714</v>
+        <v>0.85997890416742</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2049782321753314</v>
+        <v>0.1853516595358189</v>
       </c>
       <c r="H12" t="n">
-        <v>1.519657090179425</v>
+        <v>1.915025765122349</v>
       </c>
       <c r="I12" t="n">
-        <v>0.558051368182909</v>
+        <v>0.4853005528764499</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7049175330975284</v>
+        <v>0.6316899080570477</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6314844157446303</v>
+        <v>0.5584953475250277</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6179986650666587</v>
+        <v>0.5157785978282809</v>
       </c>
       <c r="M12" t="n">
-        <v>0.452745217727732</v>
+        <v>0.4305248651771683</v>
       </c>
       <c r="N12" t="n">
-        <v>1.017943349070914</v>
+        <v>1.016225281546382</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4720195189582038</v>
+        <v>0.4488531999970917</v>
       </c>
       <c r="P12" t="n">
-        <v>133.1697029799845</v>
+        <v>133.3710007918014</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.3966315964176</v>
+        <v>212.5979294082344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_11</t>
+          <t>model_6_6_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9690086531563409</v>
+        <v>0.971476022815738</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7725522988995662</v>
+        <v>0.7131178523315236</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9451092206522405</v>
+        <v>0.9316800166850566</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9347575692980642</v>
+        <v>-0.05167956158461662</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9497366663961069</v>
+        <v>0.8547735739398674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.207239279045579</v>
+        <v>0.1907399667719985</v>
       </c>
       <c r="H13" t="n">
-        <v>1.520943824558965</v>
+        <v>1.918382242429928</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5666763937080103</v>
+        <v>0.5023769636759652</v>
       </c>
       <c r="J13" t="n">
-        <v>0.7138733631295182</v>
+        <v>0.6561381061335962</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6402748784187643</v>
+        <v>0.5792575955072572</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6312009318191749</v>
+        <v>0.4965052975943813</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4552354105796022</v>
+        <v>0.4367378696334891</v>
       </c>
       <c r="N13" t="n">
-        <v>1.018141276201166</v>
+        <v>1.016696962254202</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4746157244751881</v>
+        <v>0.4553307049158104</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1477624317595</v>
+        <v>133.3136884180742</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.3746910481926</v>
+        <v>212.5406170345073</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_12</t>
+          <t>model_6_6_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9686903628663929</v>
+        <v>0.9707263916350157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7723673495720355</v>
+        <v>0.712623499111782</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9443409233555864</v>
+        <v>0.929568247206647</v>
       </c>
       <c r="E14" t="n">
-        <v>0.934011429970504</v>
+        <v>-0.08720900099916529</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9491048831118399</v>
+        <v>0.8500483179948026</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2093676876800539</v>
+        <v>0.1957527539292222</v>
       </c>
       <c r="H14" t="n">
-        <v>1.522180581563776</v>
+        <v>1.921687984686627</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5746080708774168</v>
+        <v>0.51790542675618</v>
       </c>
       <c r="J14" t="n">
-        <v>0.7220375131373871</v>
+        <v>0.6783047621579129</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6483227920074019</v>
+        <v>0.5981049945044703</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6430821596734039</v>
+        <v>0.4792839803089288</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4575671400789768</v>
+        <v>0.4424395483331279</v>
       </c>
       <c r="N14" t="n">
-        <v>1.018327592468453</v>
+        <v>1.017135770750235</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4770467205266964</v>
+        <v>0.4612751158817948</v>
       </c>
       <c r="P14" t="n">
-        <v>133.1273266030517</v>
+        <v>133.2618057512125</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3542552194847</v>
+        <v>212.4887343676455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_13</t>
+          <t>model_6_6_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9683924950252656</v>
+        <v>0.9809043123051174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7721913019738906</v>
+        <v>0.7123251893544797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9436360086243983</v>
+        <v>0.9752750330743032</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9333320066316505</v>
+        <v>0.6728183938163057</v>
       </c>
       <c r="F15" t="n">
-        <v>0.948527437068199</v>
+        <v>0.9516206025267079</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2113595313052269</v>
+        <v>0.1276929515432363</v>
       </c>
       <c r="H15" t="n">
-        <v>1.523357812663196</v>
+        <v>1.923682783407297</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5818854049303827</v>
+        <v>0.1818099655244405</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7294716663207945</v>
+        <v>0.2041271194047491</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6556785356255885</v>
+        <v>0.1929685540899103</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6537746562007265</v>
+        <v>0.9731711245216428</v>
       </c>
       <c r="M15" t="n">
-        <v>0.459738546681945</v>
+        <v>0.3573415054863293</v>
       </c>
       <c r="N15" t="n">
-        <v>1.018501954131552</v>
+        <v>1.011177963528712</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4793105684041843</v>
+        <v>0.3725542731737746</v>
       </c>
       <c r="P15" t="n">
-        <v>133.1083893114588</v>
+        <v>134.1162534257995</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.3353179278918</v>
+        <v>213.3431820422325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_14</t>
+          <t>model_6_6_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9681151701341214</v>
+        <v>0.9700326313231562</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7720251175890099</v>
+        <v>0.7121440524432314</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9429905946422785</v>
+        <v>0.9276515902084344</v>
       </c>
       <c r="E16" t="n">
-        <v>0.932714234792789</v>
+        <v>-0.1193670552658987</v>
       </c>
       <c r="F16" t="n">
-        <v>0.948000585588932</v>
+        <v>0.8457665254342233</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2132140041292719</v>
+        <v>0.2003919323290995</v>
       </c>
       <c r="H16" t="n">
-        <v>1.524469088410101</v>
+        <v>1.924894046766874</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5885484706070283</v>
+        <v>0.5319991702913861</v>
       </c>
       <c r="J16" t="n">
-        <v>0.7362312375922817</v>
+        <v>0.6983680262872675</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6623897850124836</v>
+        <v>0.6151835726282278</v>
       </c>
       <c r="L16" t="n">
-        <v>0.6633939812834185</v>
+        <v>0.4638859954771871</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4617510196299213</v>
+        <v>0.447651574697442</v>
       </c>
       <c r="N16" t="n">
-        <v>1.018664290653197</v>
+        <v>1.017541874347421</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4814087164919493</v>
+        <v>0.4667090289988198</v>
       </c>
       <c r="P16" t="n">
-        <v>133.0909178068766</v>
+        <v>133.2149603368412</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.3178464233096</v>
+        <v>212.4418889532743</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_15</t>
+          <t>model_6_6_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9678582058879713</v>
+        <v>0.9693932845095015</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7718692825017486</v>
+        <v>0.7116845427419983</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9424009716488747</v>
+        <v>0.9259144403165893</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9321534155005586</v>
+        <v>-0.1484304110098285</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9475207910153406</v>
+        <v>0.8418922433188705</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2149323252264889</v>
+        <v>0.2046672474159303</v>
       </c>
       <c r="H17" t="n">
-        <v>1.525511158356173</v>
+        <v>1.927966790254867</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5946355663910493</v>
+        <v>0.5447729451925325</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7423676422287286</v>
+        <v>0.7165005220514485</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6685016043098889</v>
+        <v>0.6306367336219905</v>
       </c>
       <c r="L17" t="n">
-        <v>0.6720465613372788</v>
+        <v>0.4501129128604074</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4636079434462798</v>
+        <v>0.4524016439138238</v>
       </c>
       <c r="N17" t="n">
-        <v>1.018814708748505</v>
+        <v>1.01791612614078</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4833446933995324</v>
+        <v>0.4716613184957418</v>
       </c>
       <c r="P17" t="n">
-        <v>133.0748641335845</v>
+        <v>133.17273960394</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3017927500175</v>
+        <v>212.3996682203731</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_16</t>
+          <t>model_6_6_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9676208442766798</v>
+        <v>0.9688061027485523</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7717238996371962</v>
+        <v>0.7112482686159897</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9418632406086589</v>
+        <v>0.9243419328207517</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9316442964738344</v>
+        <v>-0.1746699514291274</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9470842338870782</v>
+        <v>0.8383905952911028</v>
       </c>
       <c r="G18" t="n">
-        <v>0.216519563414145</v>
+        <v>0.2085937345551205</v>
       </c>
       <c r="H18" t="n">
-        <v>1.526483334240861</v>
+        <v>1.930884157344345</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6001869447878441</v>
+        <v>0.5563360560538868</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7479383499404214</v>
+        <v>0.7328712522485759</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6740626473641327</v>
+        <v>0.6446035871203859</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6798270621469672</v>
+        <v>0.4377859561869238</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4653166270553257</v>
+        <v>0.4567206307526741</v>
       </c>
       <c r="N18" t="n">
-        <v>1.018953652130724</v>
+        <v>1.01825984229353</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4851261192072781</v>
+        <v>0.4761641735458572</v>
       </c>
       <c r="P18" t="n">
-        <v>133.0601487468639</v>
+        <v>133.1347335451126</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.287077363297</v>
+        <v>212.3616621615456</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_17</t>
+          <t>model_6_6_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9674023798951439</v>
+        <v>0.9682683882155284</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7715889033842469</v>
+        <v>0.7108371575942649</v>
       </c>
       <c r="D19" t="n">
-        <v>0.941373462553089</v>
+        <v>0.9229199831260838</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9311829888279535</v>
+        <v>-0.1983408052943958</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9466876424234886</v>
+        <v>0.8352285883246365</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2179804357394119</v>
+        <v>0.2121894341133992</v>
       </c>
       <c r="H19" t="n">
-        <v>1.527386054805933</v>
+        <v>1.93363325863961</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6052432705595971</v>
+        <v>0.5667920710504681</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7529859123481869</v>
+        <v>0.7476393905608963</v>
       </c>
       <c r="K19" t="n">
-        <v>0.679114591453892</v>
+        <v>0.6572157308056822</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6868280040393095</v>
+        <v>0.4267463866742045</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4668837497058683</v>
+        <v>0.460640243697182</v>
       </c>
       <c r="N19" t="n">
-        <v>1.019081533719916</v>
+        <v>1.018574602020178</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4867599575134454</v>
+        <v>0.4802506525281302</v>
       </c>
       <c r="P19" t="n">
-        <v>133.0466999290699</v>
+        <v>133.1005516923119</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.2736285455029</v>
+        <v>212.327480308745</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_18</t>
+          <t>model_6_6_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9672017569427355</v>
+        <v>0.9677770830856307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.771464036305357</v>
+        <v>0.7104522004654015</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9409277931998322</v>
+        <v>0.9216350858656432</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9307651245199303</v>
+        <v>-0.2196819257421065</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9463275832185197</v>
+        <v>0.8323751286992032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2193220023459506</v>
+        <v>0.215474793779277</v>
       </c>
       <c r="H20" t="n">
-        <v>1.52822104153743</v>
+        <v>1.936207468732885</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6098442309556902</v>
+        <v>0.5762402991239446</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7575581239548194</v>
+        <v>0.7609540187659281</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6837011727081665</v>
+        <v>0.668597186690448</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6931260101814908</v>
+        <v>0.4168595454111903</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4683182703524929</v>
+        <v>0.4641926257269465</v>
       </c>
       <c r="N20" t="n">
-        <v>1.019198971545716</v>
+        <v>1.018862195266948</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4882555486738639</v>
+        <v>0.4839542668153463</v>
       </c>
       <c r="P20" t="n">
-        <v>133.0344285973922</v>
+        <v>133.0698226850017</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.2613572138252</v>
+        <v>212.2967513014348</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_19</t>
+          <t>model_6_6_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9670179483486457</v>
+        <v>0.9673290248728126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7713489269517162</v>
+        <v>0.7100935415154728</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9405229118626365</v>
+        <v>0.9204744069399212</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9303866941604535</v>
+        <v>-0.2389131596403946</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9460009929608416</v>
+        <v>0.829801231614916</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2205511312609894</v>
+        <v>0.2184709611115104</v>
       </c>
       <c r="H21" t="n">
-        <v>1.528990778315256</v>
+        <v>1.938605822782531</v>
       </c>
       <c r="I21" t="n">
-        <v>0.614024107772307</v>
+        <v>0.5847751131887977</v>
       </c>
       <c r="J21" t="n">
-        <v>0.761698854925807</v>
+        <v>0.7729522983270734</v>
       </c>
       <c r="K21" t="n">
-        <v>0.687861412838189</v>
+        <v>0.6788635650389033</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6987883861095524</v>
+        <v>0.4079937204257122</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4696287163930559</v>
+        <v>0.4674087730365257</v>
       </c>
       <c r="N21" t="n">
-        <v>1.019306566820305</v>
+        <v>1.019124473245183</v>
       </c>
       <c r="O21" t="n">
-        <v>0.489621783115371</v>
+        <v>0.487307332174237</v>
       </c>
       <c r="P21" t="n">
-        <v>133.0232514463442</v>
+        <v>133.0422043487402</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.2501800627773</v>
+        <v>212.2691329651733</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_20</t>
+          <t>model_6_6_1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9668498956642995</v>
+        <v>0.9804441019209719</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7712431368489744</v>
+        <v>0.7099758807145773</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9401552874641761</v>
+        <v>0.9799880932061626</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9300443816112849</v>
+        <v>0.7390460318994136</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9457050015467882</v>
+        <v>0.9611445792995537</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2216749003350246</v>
+        <v>0.1307703805010917</v>
       </c>
       <c r="H22" t="n">
-        <v>1.529698197219409</v>
+        <v>1.939392621099897</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6178193548217026</v>
+        <v>0.1471534459560597</v>
       </c>
       <c r="J22" t="n">
-        <v>0.76544438997236</v>
+        <v>0.162807996534208</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6916318723970313</v>
+        <v>0.1549807302841981</v>
       </c>
       <c r="L22" t="n">
-        <v>0.703880963985137</v>
+        <v>1.052809492137808</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4708236403739989</v>
+        <v>0.3616218750312151</v>
       </c>
       <c r="N22" t="n">
-        <v>1.019404939123337</v>
+        <v>1.01144735497309</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4908675774840163</v>
+        <v>0.3770168669117727</v>
       </c>
       <c r="P22" t="n">
-        <v>133.0130867666314</v>
+        <v>134.0686246287417</v>
       </c>
       <c r="Q22" t="n">
-        <v>212.2400153830644</v>
+        <v>213.2955532451747</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_21</t>
+          <t>model_6_6_22</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9666966008374362</v>
+        <v>0.966921162395683</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7711461061808871</v>
+        <v>0.7097609149402166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9398219283146141</v>
+        <v>0.9194272118629691</v>
       </c>
       <c r="E23" t="n">
-        <v>0.929735094543005</v>
+        <v>-0.2562400495508703</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9454370736133002</v>
+        <v>0.8274807896007728</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2226999835481169</v>
+        <v>0.2211983393741096</v>
       </c>
       <c r="H23" t="n">
-        <v>1.530347041743695</v>
+        <v>1.940830098222874</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6212608574370432</v>
+        <v>0.5924754470824772</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7688285649215459</v>
+        <v>0.7837624663158046</v>
       </c>
       <c r="K23" t="n">
-        <v>0.695044847875158</v>
+        <v>0.6881189994532304</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7084660667396361</v>
+        <v>0.4000475370727712</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4719109911287476</v>
+        <v>0.4703172752239807</v>
       </c>
       <c r="N23" t="n">
-        <v>1.019494672680525</v>
+        <v>1.019363222012283</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4920012190115211</v>
+        <v>0.4903396553212415</v>
       </c>
       <c r="P23" t="n">
-        <v>133.0038595571869</v>
+        <v>133.0173910334249</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.23078817362</v>
+        <v>212.2443196498579</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_22</t>
+          <t>model_6_6_23</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9665568808089501</v>
+        <v>0.9665503094260842</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7710573280798463</v>
+        <v>0.7094534896404913</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9395198493956418</v>
+        <v>0.918482051351967</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9294554194643622</v>
+        <v>-0.2718450803082224</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9451945603507348</v>
+        <v>0.8253891111589037</v>
       </c>
       <c r="G24" t="n">
-        <v>0.223634292021955</v>
+        <v>0.2236782348894374</v>
       </c>
       <c r="H24" t="n">
-        <v>1.530940701314139</v>
+        <v>1.9428858526177</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6243794320765818</v>
+        <v>0.5994254907543953</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7718887297073487</v>
+        <v>0.7934983741923994</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6981340808919653</v>
+        <v>0.6964619757123152</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7125841286796448</v>
+        <v>0.3929215608534335</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4728998752610906</v>
+        <v>0.4729463340479947</v>
       </c>
       <c r="N24" t="n">
-        <v>1.019576460014273</v>
+        <v>1.019580306677414</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4930322019886502</v>
+        <v>0.4930806386222959</v>
       </c>
       <c r="P24" t="n">
-        <v>132.9954863724269</v>
+        <v>132.9950934223978</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.22241498886</v>
+        <v>212.2220220388308</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_23</t>
+          <t>model_6_6_24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9664298125623311</v>
+        <v>0.9662136151717132</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7709762493584994</v>
+        <v>0.7091703443820501</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9392463495578166</v>
+        <v>0.9176297797369593</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9292030011073585</v>
+        <v>-0.2858957909113067</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9449753181047412</v>
+        <v>0.8235046280778975</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2244839979721923</v>
+        <v>0.225929710918751</v>
       </c>
       <c r="H25" t="n">
-        <v>1.531482875097119</v>
+        <v>1.944779246264661</v>
       </c>
       <c r="I25" t="n">
-        <v>0.627202964619208</v>
+        <v>0.6056924950099597</v>
       </c>
       <c r="J25" t="n">
-        <v>0.7746506553359791</v>
+        <v>0.8022645487779814</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7009268781923607</v>
+        <v>0.7039785218939705</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7162931047378573</v>
+        <v>0.3865286413802799</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4737974229269217</v>
+        <v>0.4753206401143874</v>
       </c>
       <c r="N25" t="n">
-        <v>1.019650841426928</v>
+        <v>1.019777395997046</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4939679601167956</v>
+        <v>0.4955560238134259</v>
       </c>
       <c r="P25" t="n">
-        <v>132.9879017057211</v>
+        <v>132.9750626834369</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.2148303221542</v>
+        <v>212.20199129987</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_24</t>
+          <t>model_6_6_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9663143011707511</v>
+        <v>0.979285667695498</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7709023427837776</v>
+        <v>0.7067008304916853</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9389989728604705</v>
+        <v>0.9845908760527309</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9289748452329211</v>
+        <v>0.7951380657115925</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9447770925014318</v>
+        <v>0.969774212952621</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2252564231795682</v>
+        <v>0.1385168355009354</v>
       </c>
       <c r="H26" t="n">
-        <v>1.531977088702593</v>
+        <v>1.961292897020595</v>
       </c>
       <c r="I26" t="n">
-        <v>0.6297568094799506</v>
+        <v>0.1133078277529745</v>
       </c>
       <c r="J26" t="n">
-        <v>0.7771471043439341</v>
+        <v>0.127812431174689</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7034519569119424</v>
+        <v>0.1205601294638317</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7196256373764723</v>
+        <v>1.145002880625631</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4746118658225563</v>
+        <v>0.372178499514595</v>
       </c>
       <c r="N26" t="n">
-        <v>1.019718457851268</v>
+        <v>1.012125462812391</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4948170755326265</v>
+        <v>0.3880229087546352</v>
       </c>
       <c r="P26" t="n">
-        <v>132.9810317342394</v>
+        <v>133.9535268095573</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.2079603506725</v>
+        <v>213.1804554259903</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_6_6.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_7</t>
+          <t>model_6_6_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9779811636205089</v>
+        <v>0.9615537146700706</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7158988395340466</v>
+        <v>0.8255858123766804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9530584480351623</v>
+        <v>0.9956306525850189</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3115147519669402</v>
+        <v>0.9138415410744918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9028847354811762</v>
+        <v>0.9321657910386604</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1472400602570757</v>
+        <v>0.2570904870301042</v>
       </c>
       <c r="H2" t="n">
-        <v>1.899785768201388</v>
+        <v>1.166308475740627</v>
       </c>
       <c r="I2" t="n">
-        <v>0.34517506009365</v>
+        <v>0.01656881843678763</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4295428220214439</v>
+        <v>1.132183988783657</v>
       </c>
       <c r="K2" t="n">
-        <v>0.387358941057547</v>
+        <v>0.5743764036102225</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6917981404424137</v>
+        <v>0.7761754310134802</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3837187254449223</v>
+        <v>0.5070409125801429</v>
       </c>
       <c r="N2" t="n">
-        <v>1.012889074953848</v>
+        <v>1.022505142632154</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4000544259943776</v>
+        <v>0.5286266939480648</v>
       </c>
       <c r="P2" t="n">
-        <v>133.8313819224549</v>
+        <v>132.7166543328892</v>
       </c>
       <c r="Q2" t="n">
-        <v>213.058310538888</v>
+        <v>211.9435829493223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_6</t>
+          <t>model_6_6_3</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9789190796506653</v>
+        <v>0.9631263063724028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7158773427655396</v>
+        <v>0.8255659857311013</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9571298544124529</v>
+        <v>0.9930096816401967</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3804611281391473</v>
+        <v>0.9129048827590451</v>
       </c>
       <c r="F3" t="n">
-        <v>0.912029868137595</v>
+        <v>0.9308520860650062</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1409682114447144</v>
+        <v>0.2465745590754895</v>
       </c>
       <c r="H3" t="n">
-        <v>1.899929517191379</v>
+        <v>1.166441056610908</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3152368096071798</v>
+        <v>0.0265076920461421</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3865274907942746</v>
+        <v>1.144492351316308</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3508821943877733</v>
+        <v>0.5855000114435857</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7354234056198515</v>
+        <v>0.7328284400417725</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3754573363841947</v>
+        <v>0.4965627443490797</v>
       </c>
       <c r="N3" t="n">
-        <v>1.012340050936196</v>
+        <v>1.021584601147862</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3914413324979019</v>
+        <v>0.5177024484026068</v>
       </c>
       <c r="P3" t="n">
-        <v>133.918441729537</v>
+        <v>132.80018172068</v>
       </c>
       <c r="Q3" t="n">
-        <v>213.1453703459701</v>
+        <v>212.0271103371131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_8</t>
+          <t>model_6_6_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9769940656608406</v>
+        <v>0.9642704570549665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.715734846444585</v>
+        <v>0.8253609751000271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.949236283975661</v>
+        <v>0.990125929427677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2464804950140826</v>
+        <v>0.9119755479896332</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8942752998253883</v>
+        <v>0.9294852422080646</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1538407888585464</v>
+        <v>0.2389236181928567</v>
       </c>
       <c r="H4" t="n">
-        <v>1.900882390745737</v>
+        <v>1.167811963644887</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3732805583932033</v>
+        <v>0.03744304744088615</v>
       </c>
       <c r="J4" t="n">
-        <v>0.470117399820178</v>
+        <v>1.156704477197737</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4216989791066907</v>
+        <v>0.5970735651249482</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6532728690717282</v>
+        <v>0.6943822892338721</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3922254311726184</v>
+        <v>0.4887981364457691</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013466888393654</v>
+        <v>1.020914854406849</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4089232797962101</v>
+        <v>0.509607285065898</v>
       </c>
       <c r="P4" t="n">
-        <v>133.7436740998582</v>
+        <v>132.8632227345627</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.9706027162912</v>
+        <v>212.0901513509957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_5</t>
+          <t>model_6_6_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9797580644037848</v>
+        <v>0.9594366296719552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7156038021042694</v>
+        <v>0.8253452640144825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9614287289849126</v>
+        <v>0.9978253082897683</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4525695478526608</v>
+        <v>0.914779889441623</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9216320025191092</v>
+        <v>0.9333854145269036</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1353579165374346</v>
+        <v>0.2712474441607814</v>
       </c>
       <c r="H5" t="n">
-        <v>1.901758684852831</v>
+        <v>1.167917023746268</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2836259184718514</v>
+        <v>0.008246556906707364</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3415393749504883</v>
+        <v>1.119853417758867</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3125826271225817</v>
+        <v>0.5640494172170458</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7845904293489645</v>
+        <v>0.8250845291396115</v>
       </c>
       <c r="M5" t="n">
-        <v>0.367910201730578</v>
+        <v>0.5208142127100425</v>
       </c>
       <c r="N5" t="n">
-        <v>1.01184893790998</v>
+        <v>1.023744411899343</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3835729006973582</v>
+        <v>0.5429863519791561</v>
       </c>
       <c r="P5" t="n">
-        <v>133.9996655505067</v>
+        <v>132.6094475932412</v>
       </c>
       <c r="Q5" t="n">
-        <v>213.2265941669398</v>
+        <v>211.8363762096742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_9</t>
+          <t>model_6_6_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.97599437519855</v>
+        <v>0.9650788343163109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7154381548151175</v>
+        <v>0.8250265267498722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9456745015226724</v>
+        <v>0.9871011067676424</v>
       </c>
       <c r="E6" t="n">
-        <v>0.185785200011088</v>
+        <v>0.9110603846721833</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8862452422276704</v>
+        <v>0.9280977574795453</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1605257235830344</v>
+        <v>0.2335179957240113</v>
       </c>
       <c r="H6" t="n">
-        <v>1.902866369038125</v>
+        <v>1.170048421302367</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3994713940343375</v>
+        <v>0.04891335014232753</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5079849189478478</v>
+        <v>1.168730380029108</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4537280800219254</v>
+        <v>0.6088218924163483</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6191074579297794</v>
+        <v>0.660263726533485</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4006566155488193</v>
+        <v>0.4832369974701971</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014052073054507</v>
+        <v>1.020441657961184</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4177133971462636</v>
+        <v>0.5038093968909914</v>
       </c>
       <c r="P6" t="n">
-        <v>133.6586021554176</v>
+        <v>132.9089922707221</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.8855307718506</v>
+        <v>212.1359208871551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_10</t>
+          <t>model_6_6_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9750081617460195</v>
+        <v>0.9566295842850728</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7150498899960598</v>
+        <v>0.8247417814988972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9423761437479565</v>
+        <v>0.9993714889236079</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1295989034079992</v>
+        <v>0.9157167557490926</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8788106085570533</v>
+        <v>0.934458545228504</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1671205374812015</v>
+        <v>0.2900181695881198</v>
       </c>
       <c r="H7" t="n">
-        <v>1.905462697670959</v>
+        <v>1.171952514106768</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4237251904139448</v>
+        <v>0.00238335040023249</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5430392944348673</v>
+        <v>1.107542322061752</v>
       </c>
       <c r="K7" t="n">
-        <v>0.483382242424406</v>
+        <v>0.5549628374156906</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5886749995782775</v>
+        <v>0.8802993330075453</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4088037884868504</v>
+        <v>0.5385333504882681</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014629368734037</v>
+        <v>1.025387560418494</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4262074121032397</v>
+        <v>0.5614598301362724</v>
       </c>
       <c r="P7" t="n">
-        <v>133.5780798911994</v>
+        <v>132.4756234084243</v>
       </c>
       <c r="Q7" t="n">
-        <v>212.8050085076324</v>
+        <v>211.7025520248573</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_4</t>
+          <t>model_6_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9804314116338799</v>
+        <v>0.9656252546464463</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7149944131783914</v>
+        <v>0.824604374930188</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9659207674094265</v>
+        <v>0.9840249285220803</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5266364193743507</v>
+        <v>0.9101656570263215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9315653382108988</v>
+        <v>0.9267146107157583</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1308552405093091</v>
+        <v>0.2298640804603614</v>
       </c>
       <c r="H8" t="n">
-        <v>1.905833671406155</v>
+        <v>1.172871352464425</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2505946366282942</v>
+        <v>0.06057839619821208</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2953293899106945</v>
+        <v>1.180487743468521</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2729620132694943</v>
+        <v>0.6205334886155732</v>
       </c>
       <c r="L8" t="n">
-        <v>0.840035067680692</v>
+        <v>0.6300084112384162</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3617391885175135</v>
+        <v>0.4794414254738126</v>
       </c>
       <c r="N8" t="n">
-        <v>1.011454783433826</v>
+        <v>1.020121802158178</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3771391746760551</v>
+        <v>0.4998522395368036</v>
       </c>
       <c r="P8" t="n">
-        <v>134.0673272021232</v>
+        <v>132.9405341985231</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.2942558185563</v>
+        <v>212.1674628149561</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_11</t>
+          <t>model_6_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9740534764888901</v>
+        <v>0.9659688462848928</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7146020654119135</v>
+        <v>0.8241260171285223</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9393375325651787</v>
+        <v>0.9809639454263681</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0779178487744473</v>
+        <v>0.9092974297070083</v>
       </c>
       <c r="F9" t="n">
-        <v>0.871967772167096</v>
+        <v>0.9253555755933234</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1735045221915474</v>
+        <v>0.2275664815919767</v>
       </c>
       <c r="H9" t="n">
-        <v>1.908457302727188</v>
+        <v>1.176070133286799</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4460689935843681</v>
+        <v>0.07218582136587914</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5752828699010977</v>
+        <v>1.191896873597005</v>
       </c>
       <c r="K9" t="n">
-        <v>0.510675931742733</v>
+        <v>0.6320409229611128</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5615545442367429</v>
+        <v>0.6031033455196669</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4165387403250115</v>
+        <v>0.4770392872625657</v>
       </c>
       <c r="N9" t="n">
-        <v>1.015188208884552</v>
+        <v>1.019920675345429</v>
       </c>
       <c r="O9" t="n">
-        <v>0.434271656854709</v>
+        <v>0.4973478373287922</v>
       </c>
       <c r="P9" t="n">
-        <v>133.5031032308606</v>
+        <v>132.9606257130063</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.7300318472936</v>
+        <v>212.1875543294393</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_12</t>
+          <t>model_6_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9731422474506235</v>
+        <v>0.9661568348348923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7141191556504263</v>
+        <v>0.823615185407834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9365500466027117</v>
+        <v>0.9779671549225344</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03062243681867149</v>
+        <v>0.9084612303899943</v>
       </c>
       <c r="F10" t="n">
-        <v>0.865699413184068</v>
+        <v>0.9240355424461769</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1795979149662598</v>
+        <v>0.226309401292522</v>
       </c>
       <c r="H10" t="n">
-        <v>1.911686522525848</v>
+        <v>1.179486067355205</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4665661990309522</v>
+        <v>0.083549824507599</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6047902628019477</v>
+        <v>1.202885132787826</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5356782309164499</v>
+        <v>0.6432181136929503</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5373651292935523</v>
+        <v>0.5791354482973113</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4237899420305534</v>
+        <v>0.4757198769155248</v>
       </c>
       <c r="N10" t="n">
-        <v>1.015721611248416</v>
+        <v>1.01981063326738</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4418315572289125</v>
+        <v>0.4959722569517218</v>
       </c>
       <c r="P10" t="n">
-        <v>133.4340694650014</v>
+        <v>132.9717043674246</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.6609980814344</v>
+        <v>212.1986329838577</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_3</t>
+          <t>model_6_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9808514096906464</v>
+        <v>0.966226763499837</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7139447263225399</v>
+        <v>0.8230897822712062</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9705578977209141</v>
+        <v>0.9750698851736681</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6008848598344769</v>
+        <v>0.9076610178128467</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9416466119169996</v>
+        <v>0.9227659530855299</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1280467115697982</v>
+        <v>0.2258417879880444</v>
       </c>
       <c r="H11" t="n">
-        <v>1.912852932244598</v>
+        <v>1.182999440549094</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2164964513972475</v>
+        <v>0.09453643918300139</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2490061248341386</v>
+        <v>1.213400500388042</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2327513262404783</v>
+        <v>0.6539681789210404</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9025854680063635</v>
+        <v>0.5577659442899343</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3578361518485775</v>
+        <v>0.4752281430934456</v>
       </c>
       <c r="N11" t="n">
-        <v>1.011208930912792</v>
+        <v>1.01976969941473</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3730699776557228</v>
+        <v>0.4954595890028075</v>
       </c>
       <c r="P11" t="n">
-        <v>134.1107202949915</v>
+        <v>132.9758411560234</v>
       </c>
       <c r="Q11" t="n">
-        <v>213.3376489114245</v>
+        <v>212.2027697724565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_13</t>
+          <t>model_6_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9722818106915967</v>
+        <v>0.9662085709410373</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7136197926629662</v>
+        <v>0.82256318007923</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9340022969352604</v>
+        <v>0.9722964008563475</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01249319213842059</v>
+        <v>0.9069003709734735</v>
       </c>
       <c r="F12" t="n">
-        <v>0.85997890416742</v>
+        <v>0.9215546452165376</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1853516595358189</v>
+        <v>0.2259634417125075</v>
       </c>
       <c r="H12" t="n">
-        <v>1.915025765122349</v>
+        <v>1.186520831831619</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4853005528764499</v>
+        <v>0.1050536523332775</v>
       </c>
       <c r="J12" t="n">
-        <v>0.6316899080570477</v>
+        <v>1.223395945796388</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5584953475250277</v>
+        <v>0.6642247540047573</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5157785978282809</v>
+        <v>0.5386992542342468</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4305248651771683</v>
+        <v>0.4753561209372479</v>
       </c>
       <c r="N12" t="n">
-        <v>1.016225281546382</v>
+        <v>1.019780348717441</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4488531999970917</v>
+        <v>0.4955930151283711</v>
       </c>
       <c r="P12" t="n">
-        <v>133.3710007918014</v>
+        <v>132.9747641102577</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.5979294082344</v>
+        <v>212.2016927266907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_14</t>
+          <t>model_6_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.971476022815738</v>
+        <v>0.966125763039805</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7131178523315236</v>
+        <v>0.8220451719403519</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9316800166850566</v>
+        <v>0.9696629577150054</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05167956158461662</v>
+        <v>0.9061810363736782</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8547735739398674</v>
+        <v>0.9204067338848609</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1907399667719985</v>
+        <v>0.2265171785293427</v>
       </c>
       <c r="H13" t="n">
-        <v>1.918382242429928</v>
+        <v>1.189984754641505</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5023769636759652</v>
+        <v>0.1150398212341292</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6561381061335962</v>
+        <v>1.232848518725653</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5792575955072572</v>
+        <v>0.673944528030981</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4965052975943813</v>
+        <v>0.5216729400938008</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4367378696334891</v>
+        <v>0.4759382087302328</v>
       </c>
       <c r="N13" t="n">
-        <v>1.016696962254202</v>
+        <v>1.019828821635236</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4553307049158104</v>
+        <v>0.4961998836037912</v>
       </c>
       <c r="P13" t="n">
-        <v>133.3136884180742</v>
+        <v>132.9698689870767</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.5406170345073</v>
+        <v>212.1967976035098</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_15</t>
+          <t>model_6_6_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9707263916350157</v>
+        <v>0.9659969563765325</v>
       </c>
       <c r="C14" t="n">
-        <v>0.712623499111782</v>
+        <v>0.8215428356801118</v>
       </c>
       <c r="D14" t="n">
-        <v>0.929568247206647</v>
+        <v>0.9671795851430823</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08720900099916529</v>
+        <v>0.9055042726093292</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8500483179948026</v>
+        <v>0.9193256312610121</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1957527539292222</v>
+        <v>0.2273785092797465</v>
       </c>
       <c r="H14" t="n">
-        <v>1.921687984686627</v>
+        <v>1.193343879526777</v>
       </c>
       <c r="I14" t="n">
-        <v>0.51790542675618</v>
+        <v>0.1244569138448046</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6783047621579129</v>
+        <v>1.24174168032279</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5981049945044703</v>
+        <v>0.6830986089368813</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4792839803089288</v>
+        <v>0.5064581564693019</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4424395483331279</v>
+        <v>0.4768422268211431</v>
       </c>
       <c r="N14" t="n">
-        <v>1.017135770750235</v>
+        <v>1.019904220657639</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4612751158817948</v>
+        <v>0.497142387616407</v>
       </c>
       <c r="P14" t="n">
-        <v>133.2618057512125</v>
+        <v>132.9622784167546</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.4887343676455</v>
+        <v>212.1892070331877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_2</t>
+          <t>model_6_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9809043123051174</v>
+        <v>0.9658367186936009</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7123251893544797</v>
+        <v>0.8210611751960425</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9752750330743032</v>
+        <v>0.9648507466079149</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6728183938163057</v>
+        <v>0.9048706764868405</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9516206025267079</v>
+        <v>0.9183123738482253</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1276929515432363</v>
+        <v>0.228450019403337</v>
       </c>
       <c r="H15" t="n">
-        <v>1.923682783407297</v>
+        <v>1.196564745401591</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1818099655244405</v>
+        <v>0.1332880044386732</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2041271194047491</v>
+        <v>1.250067588123176</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1929685540899103</v>
+        <v>0.6916782202804679</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9731711245216428</v>
+        <v>0.4928511935262053</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3573415054863293</v>
+        <v>0.4779644541211585</v>
       </c>
       <c r="N15" t="n">
-        <v>1.011177963528712</v>
+        <v>1.019998018325697</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3725542731737746</v>
+        <v>0.4983123904559148</v>
       </c>
       <c r="P15" t="n">
-        <v>134.1162534257995</v>
+        <v>132.9528756520763</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.3431820422325</v>
+        <v>212.1798042685093</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_16</t>
+          <t>model_6_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9700326313231562</v>
+        <v>0.9656563616515856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7121440524432314</v>
+        <v>0.8206034052330997</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9276515902084344</v>
+        <v>0.9626775635880704</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1193670552658987</v>
+        <v>0.9042799817066957</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8457665254342233</v>
+        <v>0.9173674335272255</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2003919323290995</v>
+        <v>0.2296560677737607</v>
       </c>
       <c r="H16" t="n">
-        <v>1.924894046766874</v>
+        <v>1.199625855251626</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5319991702913861</v>
+        <v>0.1415288403040606</v>
       </c>
       <c r="J16" t="n">
-        <v>0.6983680262872675</v>
+        <v>1.257829741493587</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6151835726282278</v>
+        <v>0.6996793664795994</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4638859954771871</v>
+        <v>0.4806788969629065</v>
       </c>
       <c r="M16" t="n">
-        <v>0.447651574697442</v>
+        <v>0.4792244440486741</v>
       </c>
       <c r="N16" t="n">
-        <v>1.017541874347421</v>
+        <v>1.02010359317956</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4667090289988198</v>
+        <v>0.4996260207631834</v>
       </c>
       <c r="P16" t="n">
-        <v>133.2149603368412</v>
+        <v>132.9423448934544</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.4418889532743</v>
+        <v>212.1692735098875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_17</t>
+          <t>model_6_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9693932845095015</v>
+        <v>0.9654645141083824</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7116845427419983</v>
+        <v>0.8201715898013241</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9259144403165893</v>
+        <v>0.9606580433581855</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1484304110098285</v>
+        <v>0.9037311963756413</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8418922433188705</v>
+        <v>0.9164893711530088</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2046672474159303</v>
+        <v>0.2309389531785372</v>
       </c>
       <c r="H17" t="n">
-        <v>1.927966790254867</v>
+        <v>1.202513407032237</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5447729451925325</v>
+        <v>0.1491869779709478</v>
       </c>
       <c r="J17" t="n">
-        <v>0.7165005220514485</v>
+        <v>1.265041174623285</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6306367336219905</v>
+        <v>0.707114233287518</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4501129128604074</v>
+        <v>0.4697831901652964</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4524016439138238</v>
+        <v>0.4805610816311878</v>
       </c>
       <c r="N17" t="n">
-        <v>1.01791612614078</v>
+        <v>1.020215894180459</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4716613184957418</v>
+        <v>0.501019561774806</v>
       </c>
       <c r="P17" t="n">
-        <v>133.17273960394</v>
+        <v>132.9312037506814</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3996682203731</v>
+        <v>212.1581323671145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_18</t>
+          <t>model_6_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9688061027485523</v>
+        <v>0.9652678114781985</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7112482686159897</v>
+        <v>0.8197667234290044</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9243419328207517</v>
+        <v>0.9587882871607007</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1746699514291274</v>
+        <v>0.90322309630789</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8383905952911028</v>
+        <v>0.9156763666083774</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2085937345551205</v>
+        <v>0.2322543045723094</v>
       </c>
       <c r="H18" t="n">
-        <v>1.930884157344345</v>
+        <v>1.205220750328177</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5563360560538868</v>
+        <v>0.1562772017537865</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7328712522485759</v>
+        <v>1.27171797419215</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6446035871203859</v>
+        <v>0.7139982322846951</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4377859561869238</v>
+        <v>0.4600213916934923</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4567206307526741</v>
+        <v>0.4819276964154575</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01825984229353</v>
+        <v>1.020331037183493</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4761641735458572</v>
+        <v>0.5024443561797247</v>
       </c>
       <c r="P18" t="n">
-        <v>133.1347335451126</v>
+        <v>132.9198447344824</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.3616621615456</v>
+        <v>212.1467733509154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_19</t>
+          <t>model_6_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9682683882155284</v>
+        <v>0.9650711116460361</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7108371575942649</v>
+        <v>0.819389127370463</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9229199831260838</v>
+        <v>0.9570627096159021</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1983408052943958</v>
+        <v>0.9027537992003106</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8352285883246365</v>
+        <v>0.9149258973195032</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2121894341133992</v>
+        <v>0.2335696372556987</v>
       </c>
       <c r="H19" t="n">
-        <v>1.93363325863961</v>
+        <v>1.207745736910314</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5667920710504681</v>
+        <v>0.1628206917359146</v>
       </c>
       <c r="J19" t="n">
-        <v>0.7476393905608963</v>
+        <v>1.277884875014311</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6572157308056822</v>
+        <v>0.7203527230020423</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4267463866742045</v>
+        <v>0.4512727361314107</v>
       </c>
       <c r="M19" t="n">
-        <v>0.460640243697182</v>
+        <v>0.4832904274405802</v>
       </c>
       <c r="N19" t="n">
-        <v>1.018574602020178</v>
+        <v>1.020446178548662</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4802506525281302</v>
+        <v>0.503865101485829</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1005516923119</v>
+        <v>132.9085500279543</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.327480308745</v>
+        <v>212.1354786443874</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_20</t>
+          <t>model_6_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9677770830856307</v>
+        <v>0.9648781364766702</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7104522004654015</v>
+        <v>0.8190384353520335</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9216350858656432</v>
+        <v>0.9554742844978609</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2196819257421065</v>
+        <v>0.9023218378464337</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8323751286992032</v>
+        <v>0.9142350188683427</v>
       </c>
       <c r="G20" t="n">
-        <v>0.215474793779277</v>
+        <v>0.2348600631018175</v>
       </c>
       <c r="H20" t="n">
-        <v>1.936207468732885</v>
+        <v>1.21009081605234</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5762402991239446</v>
+        <v>0.1688440917729596</v>
       </c>
       <c r="J20" t="n">
-        <v>0.7609540187659281</v>
+        <v>1.283561157235835</v>
       </c>
       <c r="K20" t="n">
-        <v>0.668597186690448</v>
+        <v>0.7262026368756684</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4168595454111903</v>
+        <v>0.4434312758940456</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4641926257269465</v>
+        <v>0.4846236303584643</v>
       </c>
       <c r="N20" t="n">
-        <v>1.018862195266948</v>
+        <v>1.020559139623413</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4839542668153463</v>
+        <v>0.5052550616120379</v>
       </c>
       <c r="P20" t="n">
-        <v>133.0698226850017</v>
+        <v>132.8975308367336</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.2967513014348</v>
+        <v>212.1244594531667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_21</t>
+          <t>model_6_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9673290248728126</v>
+        <v>0.9646915120668741</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7100935415154728</v>
+        <v>0.8187139837362177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9204744069399212</v>
+        <v>0.9540161247550021</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2389131596403946</v>
+        <v>0.901925145611481</v>
       </c>
       <c r="F21" t="n">
-        <v>0.829801231614916</v>
+        <v>0.9136006798609591</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2184709611115104</v>
+        <v>0.2361080213894503</v>
       </c>
       <c r="H21" t="n">
-        <v>1.938605822782531</v>
+        <v>1.212260425501262</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5847751131887977</v>
+        <v>0.1743735179633384</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7729522983270734</v>
+        <v>1.288773977920994</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6788635650389033</v>
+        <v>0.7315738111446621</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4079937204257122</v>
+        <v>0.4364016389898226</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4674087730365257</v>
+        <v>0.4859094785960141</v>
       </c>
       <c r="N21" t="n">
-        <v>1.019124473245183</v>
+        <v>1.020668383180366</v>
       </c>
       <c r="O21" t="n">
-        <v>0.487307332174237</v>
+        <v>0.5065956510711329</v>
       </c>
       <c r="P21" t="n">
-        <v>133.0422043487402</v>
+        <v>132.8869317218509</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.2691329651733</v>
+        <v>212.1138603382839</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_1</t>
+          <t>model_6_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9804441019209719</v>
+        <v>0.9645129555957048</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7099758807145773</v>
+        <v>0.8184147764765271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9799880932061626</v>
+        <v>0.9526799836605737</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7390460318994136</v>
+        <v>0.901561492275917</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9611445792995537</v>
+        <v>0.9130192845037278</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1307703805010917</v>
+        <v>0.2373020293343365</v>
       </c>
       <c r="H22" t="n">
-        <v>1.939392621099897</v>
+        <v>1.214261225824537</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1471534459560597</v>
+        <v>0.1794402423724823</v>
       </c>
       <c r="J22" t="n">
-        <v>0.162807996534208</v>
+        <v>1.293552643755178</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1549807302841981</v>
+        <v>0.7364966926741349</v>
       </c>
       <c r="L22" t="n">
-        <v>1.052809492137808</v>
+        <v>0.4300884132515476</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3616218750312151</v>
+        <v>0.4871365612785972</v>
       </c>
       <c r="N22" t="n">
-        <v>1.01144735497309</v>
+        <v>1.020772904041539</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3770168669117727</v>
+        <v>0.5078749732039249</v>
       </c>
       <c r="P22" t="n">
-        <v>134.0686246287417</v>
+        <v>132.8768431276197</v>
       </c>
       <c r="Q22" t="n">
-        <v>213.2955532451747</v>
+        <v>212.1037717440528</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_22</t>
+          <t>model_6_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.966921162395683</v>
+        <v>0.9643436759388869</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7097609149402166</v>
+        <v>0.8181396101085395</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9194272118629691</v>
+        <v>0.9514583133102187</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2562400495508703</v>
+        <v>0.9012288445855499</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8274807896007728</v>
+        <v>0.9124875732191291</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2211983393741096</v>
+        <v>0.2384340031789387</v>
       </c>
       <c r="H23" t="n">
-        <v>1.940830098222874</v>
+        <v>1.216101264594294</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5924754470824772</v>
+        <v>0.1840728870908303</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7837624663158046</v>
+        <v>1.297923873157797</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6881189994532304</v>
+        <v>0.7409988814677098</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4000475370727712</v>
+        <v>0.4244303097544991</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4703172752239807</v>
+        <v>0.488297043999796</v>
       </c>
       <c r="N23" t="n">
-        <v>1.019363222012283</v>
+        <v>1.020871994572359</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4903396553212415</v>
+        <v>0.5090848600770956</v>
       </c>
       <c r="P23" t="n">
-        <v>133.0173910334249</v>
+        <v>132.8673254463552</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.2443196498579</v>
+        <v>212.0942540627883</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_23</t>
+          <t>model_6_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9665503094260842</v>
+        <v>0.9641842696565778</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7094534896404913</v>
+        <v>0.8178871841685346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.918482051351967</v>
+        <v>0.9503426888321261</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.2718450803082224</v>
+        <v>0.9009248943168662</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8253891111589037</v>
+        <v>0.9120019689765563</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2236782348894374</v>
+        <v>0.2394999537227386</v>
       </c>
       <c r="H24" t="n">
-        <v>1.9428858526177</v>
+        <v>1.217789238017421</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5994254907543953</v>
+        <v>0.1883033997201931</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7934983741923994</v>
+        <v>1.301917997842498</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6964619757123152</v>
+        <v>0.7451106655173453</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3929215608534335</v>
+        <v>0.4193505715652122</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4729463340479947</v>
+        <v>0.4893873248488753</v>
       </c>
       <c r="N24" t="n">
-        <v>1.019580306677414</v>
+        <v>1.020965305566881</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4930806386222959</v>
+        <v>0.5102215564391126</v>
       </c>
       <c r="P24" t="n">
-        <v>132.9950934223978</v>
+        <v>132.8584041107113</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.2220220388308</v>
+        <v>212.0853327271444</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_24</t>
+          <t>model_6_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9662136151717132</v>
+        <v>0.9640351748535185</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7091703443820501</v>
+        <v>0.817656054410934</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9176297797369593</v>
+        <v>0.9493256580365412</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.2858957909113067</v>
+        <v>0.9006479189680855</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8235046280778975</v>
+        <v>0.9115592369822826</v>
       </c>
       <c r="G25" t="n">
-        <v>0.225929710918751</v>
+        <v>0.2404969513573139</v>
       </c>
       <c r="H25" t="n">
-        <v>1.944779246264661</v>
+        <v>1.219334803770751</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6056924950099597</v>
+        <v>0.192160039395695</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8022645487779814</v>
+        <v>1.305557652718967</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7039785218939705</v>
+        <v>0.7488594349734615</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3865286413802799</v>
+        <v>0.4147910121066951</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4753206401143874</v>
+        <v>0.4904048851279052</v>
       </c>
       <c r="N25" t="n">
-        <v>1.019777395997046</v>
+        <v>1.02105258057355</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4955560238134259</v>
+        <v>0.511282436365861</v>
       </c>
       <c r="P25" t="n">
-        <v>132.9750626834369</v>
+        <v>132.8500957315713</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.20199129987</v>
+        <v>212.0770243480043</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_0</t>
+          <t>model_6_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.979285667695498</v>
+        <v>0.9638963235965933</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7067008304916853</v>
+        <v>0.8174448764690148</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9845908760527309</v>
+        <v>0.9484001981735952</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7951380657115925</v>
+        <v>0.9003954064833594</v>
       </c>
       <c r="F26" t="n">
-        <v>0.969774212952621</v>
+        <v>0.9111561471624854</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1385168355009354</v>
+        <v>0.2414254503517246</v>
       </c>
       <c r="H26" t="n">
-        <v>1.961292897020595</v>
+        <v>1.22074695164075</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1133078277529745</v>
+        <v>0.1956694367915425</v>
       </c>
       <c r="J26" t="n">
-        <v>0.127812431174689</v>
+        <v>1.30887584800403</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1205601294638317</v>
+        <v>0.7522725400213726</v>
       </c>
       <c r="L26" t="n">
-        <v>1.145002880625631</v>
+        <v>0.4106899422074528</v>
       </c>
       <c r="M26" t="n">
-        <v>0.372178499514595</v>
+        <v>0.4913506389043619</v>
       </c>
       <c r="N26" t="n">
-        <v>1.012125462812391</v>
+        <v>1.021133859358092</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3880229087546352</v>
+        <v>0.5122684528385617</v>
       </c>
       <c r="P26" t="n">
-        <v>133.9535268095573</v>
+        <v>132.8423890954822</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.1804554259903</v>
+        <v>212.0693177119153</v>
       </c>
     </row>
   </sheetData>
